--- a/PlayersApi_RegressionTestsReport.xlsx
+++ b/PlayersApi_RegressionTestsReport.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,11 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Testing type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Area</t>
   </si>
   <si>
@@ -38,6 +42,11 @@
   </si>
   <si>
     <t xml:space="preserve">Reproducing Steps / Postman Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8
+NFR – Sec
+</t>
   </si>
   <si>
     <t xml:space="preserve">Authentication</t>
@@ -57,16 +66,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">If valid </t>
+      <t xml:space="preserve">- If valid </t>
     </r>
     <r>
       <rPr>
@@ -75,6 +75,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">username</t>
     </r>
@@ -84,6 +85,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> or </t>
     </r>
@@ -94,6 +96,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">password</t>
     </r>
@@ -103,6 +106,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> used, second one can be empty or  any value</t>
     </r>
@@ -117,6 +121,9 @@
     <t xml:space="preserve">1.2. Auth: Case insensative password</t>
   </si>
   <si>
+    <t xml:space="preserve">Functional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Data</t>
   </si>
   <si>
@@ -154,6 +161,138 @@
   </si>
   <si>
     <t xml:space="preserve">Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3. Each page response returns one element (player) missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unconsistance response data: sometimes "Name" field is empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even when Accept header is specifying other than Json, JSON data returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4. Uncosistence  response data: sometimes "Name" field is empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFR – Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected protocol for Basic Auth is HTTPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The request uses not secury protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1. Feature Request: Expected protocol for Basic Auth is HTTPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST Method: API responses to unsupported methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected: Only GET method should be supported, 
+Actual: can be run with any http method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2. POST Method: API responses to unsupported methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE Method: API responses to unsupported methods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3. DELETE Method: API responses to unsupported methods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREW method: HTCPCP (tea bot protocol) not fully implemented:)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4. BREW method: HTCPCP (tea bot protocol) not fully implemented:)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature Request: Base URL (http://localhost:8000) shoud not return 404 error
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFR – General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only "invalid credentials" warning is logged.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Logs should be reviewed on debug/info level + Logs files not contains any sensetive data.                              - Wrong log level definition for “credentials” error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In real environment shoud be run Not Functional tests (like Load, Stress, Latency, Throughput, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postman requests should be updated with tests to allow execution as part of sanity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See for example: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFR – Load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concurrent requests are crashing the system 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporoduction steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python Script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sanity – Positive / Negative scenario tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify basic functionality – http://localhost:8000/players?page=1  with valid credentials – admin/admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API returns page 1 results and status code 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:8000/players?page=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retry a few next pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API returns requested page results and status code 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case A
+http://localhost:8000/players?page=2
+Case B
+http://localhost:8000/players?page=3</t>
   </si>
   <si>
     <r>
@@ -164,16 +303,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3.3. Each page response </t>
+      <t xml:space="preserve">Send request with </t>
     </r>
     <r>
       <rPr>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">returns</t>
+      <t xml:space="preserve">invalid</t>
     </r>
     <r>
       <rPr>
@@ -183,32 +324,25 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> one element (player) missing</t>
+      <t xml:space="preserve"> credentails –</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Unconsistance response data: sometimes "Name" field is empty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even when Accept header is specifying other than Json, JSON data returned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4. Uncosistence  response data: sometimes "Name" field is empty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request Metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected protocol for Basic Auth is HTTPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The request uses not secury protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1. Feature Request: Expected protocol for Basic Auth is HTTPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POST Method: API responses to unsupported methods</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> baduser/badpassword</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">API does not return any result, and return status code 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Functional Requirements tests</t>
   </si>
   <si>
     <r>
@@ -219,16 +353,104 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Expected: Only GET </t>
+      <t xml:space="preserve">Verify page results are returned in required order </t>
     </r>
     <r>
       <rPr>
+        <i val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">method </t>
+      <t xml:space="preserve">(assuming, ordered by ID for this task)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Page items are ordered by ID ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login with proper credentials
+2.  Verify page results </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify # of elements on page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page should return 50 items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page returns only first 49 elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open any page
+2. Verify # of items == 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify element “Name” property is  mached by ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element “Name” property is  mached by ID.
+Elements data is taken from DB and corresponded to it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All elements “Name” property  on Page=17 are “null”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Send request to page=17 
+2. Verify “Name” property for each ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET api request should be idempotent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run the same request multiple times. Same request should return Same response every time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some of the response data missing “Name” value, each request for different items with different ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Repeat request for page 1 several times
+2. Each time – look for items with empty Name property
+3. Each time items with different ID will have the Name property empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each page should be returm proper and unique data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From page &gt;17, elements of the page 1 were rerurned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Send request to page=100
+2. Verify which data was returned -data of first page will be returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 3 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Feature Request</t>
     </r>
     <r>
       <rPr>
@@ -238,48 +460,256 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">should be supported, 
-Actual: can be run with any http method</t>
+      <t xml:space="preserve">: Invalid response for single player ID (based on REST API convention)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">4.2. POST Method: API responses to unsupported methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE Method: API responses to unsupported methods </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3. DELETE Method: API responses to unsupported methods </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BREW method: HTCPCP (tea bot protocol) not fully implemented:)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4. BREW method: HTCPCP (tea bot protocol) not fully implemented:)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature Request: Base URL (http://localhost:8000) shoud not return 404 error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only "invalid credentials" warning is logged.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  -Logs should be reviewed on debug/info level + Logs files not contains any sensetive data.                              - Wrong log level definition for “credentials” error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In real environment shoud be run Not Functional tests (like Load, Stress, Latency, Throughput, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postman requests should be updated with tests to allow execution as part of sanity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See for example: </t>
+    <t xml:space="preserve">Ability to get single player data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter URL: http://localhost:8000/players/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each request must response the same data which cooresponded to DB and taken from it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each request returns different data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1.Send request to page=1
+2. Verify which “Name” was returned for each element on the page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">not found response </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">consistency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> for the spesific element. 
+Tested separately by Python scripts</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1. Uncosistence  response data: sometimes "Name" field is empty.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Feature Request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Base URL: http://localhost:8000 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoud not return 404 error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">404 error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only GET method should be supported, 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can be run with any http method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREW method: HTCPCP (tea bot protocol) not fully implemented :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Functional Requirments (NFR) – Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send response with invalid/empty credentials (user/pass)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API returned status code 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case A: Enter invalid password
+admin:badpass
+Case B: Do not enter password
+admin:
+Case C:Do not enter username
+:admin
+Case D: Enter invalid username
+Badname:admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter invalid password
+admin:ADMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auth request must be sent over https protocol only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The request supports not secury protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFR – Load tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run 100K requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System successfully handle the requests with average time X ms per request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concurrent requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple concurrent requests should be allowed
+(TDB: define quantity of parallel requests)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executional program is crashed.Fatal error is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run script to send multiple requests to the api
+2. in parallel, try to send  GET request to the api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logs convention: “Credentials” error</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logs should be reviewed on debug/info level + Logs files not contains any sensetive data.                              - Wrong log level definition for “Invalid credentials” error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only "invalid credentials" warning is printed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log convention: On crash – not enough details in logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On system crash, full error details should be logged for future investigations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only general error is printed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log convention: No sensitive information on logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password will not be printed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Full </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> are printed in log</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with wrong password </t>
   </si>
 </sst>
 </file>
@@ -289,7 +719,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -328,10 +758,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -339,14 +770,53 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87D1D1"/>
+        <bgColor rgb="FFADD58A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD58A"/>
+        <bgColor rgb="FF87D1D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF68E76"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -383,7 +853,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -400,6 +870,66 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -409,6 +939,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFADD58A"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFF68E76"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF87D1D1"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,22 +1007,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:AMJ19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="77.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="33.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="7" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="28.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="77.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="33.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,42 +1043,51 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="73.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,19 +1095,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,16 +1118,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,19 +1138,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,17 +1161,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,19 +1182,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,19 +1205,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,19 +1228,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,47 +1251,56 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="144.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,52 +1308,1086 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
+      <c r="AE17" s="0"/>
+      <c r="AF17" s="0"/>
+      <c r="AG17" s="0"/>
+      <c r="AH17" s="0"/>
+      <c r="AI17" s="0"/>
+      <c r="AJ17" s="0"/>
+      <c r="AK17" s="0"/>
+      <c r="AL17" s="0"/>
+      <c r="AM17" s="0"/>
+      <c r="AN17" s="0"/>
+      <c r="AO17" s="0"/>
+      <c r="AP17" s="0"/>
+      <c r="AQ17" s="0"/>
+      <c r="AR17" s="0"/>
+      <c r="AS17" s="0"/>
+      <c r="AT17" s="0"/>
+      <c r="AU17" s="0"/>
+      <c r="AV17" s="0"/>
+      <c r="AW17" s="0"/>
+      <c r="AX17" s="0"/>
+      <c r="AY17" s="0"/>
+      <c r="AZ17" s="0"/>
+      <c r="BA17" s="0"/>
+      <c r="BB17" s="0"/>
+      <c r="BC17" s="0"/>
+      <c r="BD17" s="0"/>
+      <c r="BE17" s="0"/>
+      <c r="BF17" s="0"/>
+      <c r="BG17" s="0"/>
+      <c r="BH17" s="0"/>
+      <c r="BI17" s="0"/>
+      <c r="BJ17" s="0"/>
+      <c r="BK17" s="0"/>
+      <c r="BL17" s="0"/>
+      <c r="BM17" s="0"/>
+      <c r="BN17" s="0"/>
+      <c r="BO17" s="0"/>
+      <c r="BP17" s="0"/>
+      <c r="BQ17" s="0"/>
+      <c r="BR17" s="0"/>
+      <c r="BS17" s="0"/>
+      <c r="BT17" s="0"/>
+      <c r="BU17" s="0"/>
+      <c r="BV17" s="0"/>
+      <c r="BW17" s="0"/>
+      <c r="BX17" s="0"/>
+      <c r="BY17" s="0"/>
+      <c r="BZ17" s="0"/>
+      <c r="CA17" s="0"/>
+      <c r="CB17" s="0"/>
+      <c r="CC17" s="0"/>
+      <c r="CD17" s="0"/>
+      <c r="CE17" s="0"/>
+      <c r="CF17" s="0"/>
+      <c r="CG17" s="0"/>
+      <c r="CH17" s="0"/>
+      <c r="CI17" s="0"/>
+      <c r="CJ17" s="0"/>
+      <c r="CK17" s="0"/>
+      <c r="CL17" s="0"/>
+      <c r="CM17" s="0"/>
+      <c r="CN17" s="0"/>
+      <c r="CO17" s="0"/>
+      <c r="CP17" s="0"/>
+      <c r="CQ17" s="0"/>
+      <c r="CR17" s="0"/>
+      <c r="CS17" s="0"/>
+      <c r="CT17" s="0"/>
+      <c r="CU17" s="0"/>
+      <c r="CV17" s="0"/>
+      <c r="CW17" s="0"/>
+      <c r="CX17" s="0"/>
+      <c r="CY17" s="0"/>
+      <c r="CZ17" s="0"/>
+      <c r="DA17" s="0"/>
+      <c r="DB17" s="0"/>
+      <c r="DC17" s="0"/>
+      <c r="DD17" s="0"/>
+      <c r="DE17" s="0"/>
+      <c r="DF17" s="0"/>
+      <c r="DG17" s="0"/>
+      <c r="DH17" s="0"/>
+      <c r="DI17" s="0"/>
+      <c r="DJ17" s="0"/>
+      <c r="DK17" s="0"/>
+      <c r="DL17" s="0"/>
+      <c r="DM17" s="0"/>
+      <c r="DN17" s="0"/>
+      <c r="DO17" s="0"/>
+      <c r="DP17" s="0"/>
+      <c r="DQ17" s="0"/>
+      <c r="DR17" s="0"/>
+      <c r="DS17" s="0"/>
+      <c r="DT17" s="0"/>
+      <c r="DU17" s="0"/>
+      <c r="DV17" s="0"/>
+      <c r="DW17" s="0"/>
+      <c r="DX17" s="0"/>
+      <c r="DY17" s="0"/>
+      <c r="DZ17" s="0"/>
+      <c r="EA17" s="0"/>
+      <c r="EB17" s="0"/>
+      <c r="EC17" s="0"/>
+      <c r="ED17" s="0"/>
+      <c r="EE17" s="0"/>
+      <c r="EF17" s="0"/>
+      <c r="EG17" s="0"/>
+      <c r="EH17" s="0"/>
+      <c r="EI17" s="0"/>
+      <c r="EJ17" s="0"/>
+      <c r="EK17" s="0"/>
+      <c r="EL17" s="0"/>
+      <c r="EM17" s="0"/>
+      <c r="EN17" s="0"/>
+      <c r="EO17" s="0"/>
+      <c r="EP17" s="0"/>
+      <c r="EQ17" s="0"/>
+      <c r="ER17" s="0"/>
+      <c r="ES17" s="0"/>
+      <c r="ET17" s="0"/>
+      <c r="EU17" s="0"/>
+      <c r="EV17" s="0"/>
+      <c r="EW17" s="0"/>
+      <c r="EX17" s="0"/>
+      <c r="EY17" s="0"/>
+      <c r="EZ17" s="0"/>
+      <c r="FA17" s="0"/>
+      <c r="FB17" s="0"/>
+      <c r="FC17" s="0"/>
+      <c r="FD17" s="0"/>
+      <c r="FE17" s="0"/>
+      <c r="FF17" s="0"/>
+      <c r="FG17" s="0"/>
+      <c r="FH17" s="0"/>
+      <c r="FI17" s="0"/>
+      <c r="FJ17" s="0"/>
+      <c r="FK17" s="0"/>
+      <c r="FL17" s="0"/>
+      <c r="FM17" s="0"/>
+      <c r="FN17" s="0"/>
+      <c r="FO17" s="0"/>
+      <c r="FP17" s="0"/>
+      <c r="FQ17" s="0"/>
+      <c r="FR17" s="0"/>
+      <c r="FS17" s="0"/>
+      <c r="FT17" s="0"/>
+      <c r="FU17" s="0"/>
+      <c r="FV17" s="0"/>
+      <c r="FW17" s="0"/>
+      <c r="FX17" s="0"/>
+      <c r="FY17" s="0"/>
+      <c r="FZ17" s="0"/>
+      <c r="GA17" s="0"/>
+      <c r="GB17" s="0"/>
+      <c r="GC17" s="0"/>
+      <c r="GD17" s="0"/>
+      <c r="GE17" s="0"/>
+      <c r="GF17" s="0"/>
+      <c r="GG17" s="0"/>
+      <c r="GH17" s="0"/>
+      <c r="GI17" s="0"/>
+      <c r="GJ17" s="0"/>
+      <c r="GK17" s="0"/>
+      <c r="GL17" s="0"/>
+      <c r="GM17" s="0"/>
+      <c r="GN17" s="0"/>
+      <c r="GO17" s="0"/>
+      <c r="GP17" s="0"/>
+      <c r="GQ17" s="0"/>
+      <c r="GR17" s="0"/>
+      <c r="GS17" s="0"/>
+      <c r="GT17" s="0"/>
+      <c r="GU17" s="0"/>
+      <c r="GV17" s="0"/>
+      <c r="GW17" s="0"/>
+      <c r="GX17" s="0"/>
+      <c r="GY17" s="0"/>
+      <c r="GZ17" s="0"/>
+      <c r="HA17" s="0"/>
+      <c r="HB17" s="0"/>
+      <c r="HC17" s="0"/>
+      <c r="HD17" s="0"/>
+      <c r="HE17" s="0"/>
+      <c r="HF17" s="0"/>
+      <c r="HG17" s="0"/>
+      <c r="HH17" s="0"/>
+      <c r="HI17" s="0"/>
+      <c r="HJ17" s="0"/>
+      <c r="HK17" s="0"/>
+      <c r="HL17" s="0"/>
+      <c r="HM17" s="0"/>
+      <c r="HN17" s="0"/>
+      <c r="HO17" s="0"/>
+      <c r="HP17" s="0"/>
+      <c r="HQ17" s="0"/>
+      <c r="HR17" s="0"/>
+      <c r="HS17" s="0"/>
+      <c r="HT17" s="0"/>
+      <c r="HU17" s="0"/>
+      <c r="HV17" s="0"/>
+      <c r="HW17" s="0"/>
+      <c r="HX17" s="0"/>
+      <c r="HY17" s="0"/>
+      <c r="HZ17" s="0"/>
+      <c r="IA17" s="0"/>
+      <c r="IB17" s="0"/>
+      <c r="IC17" s="0"/>
+      <c r="ID17" s="0"/>
+      <c r="IE17" s="0"/>
+      <c r="IF17" s="0"/>
+      <c r="IG17" s="0"/>
+      <c r="IH17" s="0"/>
+      <c r="II17" s="0"/>
+      <c r="IJ17" s="0"/>
+      <c r="IK17" s="0"/>
+      <c r="IL17" s="0"/>
+      <c r="IM17" s="0"/>
+      <c r="IN17" s="0"/>
+      <c r="IO17" s="0"/>
+      <c r="IP17" s="0"/>
+      <c r="IQ17" s="0"/>
+      <c r="IR17" s="0"/>
+      <c r="IS17" s="0"/>
+      <c r="IT17" s="0"/>
+      <c r="IU17" s="0"/>
+      <c r="IV17" s="0"/>
+      <c r="IW17" s="0"/>
+      <c r="IX17" s="0"/>
+      <c r="IY17" s="0"/>
+      <c r="IZ17" s="0"/>
+      <c r="JA17" s="0"/>
+      <c r="JB17" s="0"/>
+      <c r="JC17" s="0"/>
+      <c r="JD17" s="0"/>
+      <c r="JE17" s="0"/>
+      <c r="JF17" s="0"/>
+      <c r="JG17" s="0"/>
+      <c r="JH17" s="0"/>
+      <c r="JI17" s="0"/>
+      <c r="JJ17" s="0"/>
+      <c r="JK17" s="0"/>
+      <c r="JL17" s="0"/>
+      <c r="JM17" s="0"/>
+      <c r="JN17" s="0"/>
+      <c r="JO17" s="0"/>
+      <c r="JP17" s="0"/>
+      <c r="JQ17" s="0"/>
+      <c r="JR17" s="0"/>
+      <c r="JS17" s="0"/>
+      <c r="JT17" s="0"/>
+      <c r="JU17" s="0"/>
+      <c r="JV17" s="0"/>
+      <c r="JW17" s="0"/>
+      <c r="JX17" s="0"/>
+      <c r="JY17" s="0"/>
+      <c r="JZ17" s="0"/>
+      <c r="KA17" s="0"/>
+      <c r="KB17" s="0"/>
+      <c r="KC17" s="0"/>
+      <c r="KD17" s="0"/>
+      <c r="KE17" s="0"/>
+      <c r="KF17" s="0"/>
+      <c r="KG17" s="0"/>
+      <c r="KH17" s="0"/>
+      <c r="KI17" s="0"/>
+      <c r="KJ17" s="0"/>
+      <c r="KK17" s="0"/>
+      <c r="KL17" s="0"/>
+      <c r="KM17" s="0"/>
+      <c r="KN17" s="0"/>
+      <c r="KO17" s="0"/>
+      <c r="KP17" s="0"/>
+      <c r="KQ17" s="0"/>
+      <c r="KR17" s="0"/>
+      <c r="KS17" s="0"/>
+      <c r="KT17" s="0"/>
+      <c r="KU17" s="0"/>
+      <c r="KV17" s="0"/>
+      <c r="KW17" s="0"/>
+      <c r="KX17" s="0"/>
+      <c r="KY17" s="0"/>
+      <c r="KZ17" s="0"/>
+      <c r="LA17" s="0"/>
+      <c r="LB17" s="0"/>
+      <c r="LC17" s="0"/>
+      <c r="LD17" s="0"/>
+      <c r="LE17" s="0"/>
+      <c r="LF17" s="0"/>
+      <c r="LG17" s="0"/>
+      <c r="LH17" s="0"/>
+      <c r="LI17" s="0"/>
+      <c r="LJ17" s="0"/>
+      <c r="LK17" s="0"/>
+      <c r="LL17" s="0"/>
+      <c r="LM17" s="0"/>
+      <c r="LN17" s="0"/>
+      <c r="LO17" s="0"/>
+      <c r="LP17" s="0"/>
+      <c r="LQ17" s="0"/>
+      <c r="LR17" s="0"/>
+      <c r="LS17" s="0"/>
+      <c r="LT17" s="0"/>
+      <c r="LU17" s="0"/>
+      <c r="LV17" s="0"/>
+      <c r="LW17" s="0"/>
+      <c r="LX17" s="0"/>
+      <c r="LY17" s="0"/>
+      <c r="LZ17" s="0"/>
+      <c r="MA17" s="0"/>
+      <c r="MB17" s="0"/>
+      <c r="MC17" s="0"/>
+      <c r="MD17" s="0"/>
+      <c r="ME17" s="0"/>
+      <c r="MF17" s="0"/>
+      <c r="MG17" s="0"/>
+      <c r="MH17" s="0"/>
+      <c r="MI17" s="0"/>
+      <c r="MJ17" s="0"/>
+      <c r="MK17" s="0"/>
+      <c r="ML17" s="0"/>
+      <c r="MM17" s="0"/>
+      <c r="MN17" s="0"/>
+      <c r="MO17" s="0"/>
+      <c r="MP17" s="0"/>
+      <c r="MQ17" s="0"/>
+      <c r="MR17" s="0"/>
+      <c r="MS17" s="0"/>
+      <c r="MT17" s="0"/>
+      <c r="MU17" s="0"/>
+      <c r="MV17" s="0"/>
+      <c r="MW17" s="0"/>
+      <c r="MX17" s="0"/>
+      <c r="MY17" s="0"/>
+      <c r="MZ17" s="0"/>
+      <c r="NA17" s="0"/>
+      <c r="NB17" s="0"/>
+      <c r="NC17" s="0"/>
+      <c r="ND17" s="0"/>
+      <c r="NE17" s="0"/>
+      <c r="NF17" s="0"/>
+      <c r="NG17" s="0"/>
+      <c r="NH17" s="0"/>
+      <c r="NI17" s="0"/>
+      <c r="NJ17" s="0"/>
+      <c r="NK17" s="0"/>
+      <c r="NL17" s="0"/>
+      <c r="NM17" s="0"/>
+      <c r="NN17" s="0"/>
+      <c r="NO17" s="0"/>
+      <c r="NP17" s="0"/>
+      <c r="NQ17" s="0"/>
+      <c r="NR17" s="0"/>
+      <c r="NS17" s="0"/>
+      <c r="NT17" s="0"/>
+      <c r="NU17" s="0"/>
+      <c r="NV17" s="0"/>
+      <c r="NW17" s="0"/>
+      <c r="NX17" s="0"/>
+      <c r="NY17" s="0"/>
+      <c r="NZ17" s="0"/>
+      <c r="OA17" s="0"/>
+      <c r="OB17" s="0"/>
+      <c r="OC17" s="0"/>
+      <c r="OD17" s="0"/>
+      <c r="OE17" s="0"/>
+      <c r="OF17" s="0"/>
+      <c r="OG17" s="0"/>
+      <c r="OH17" s="0"/>
+      <c r="OI17" s="0"/>
+      <c r="OJ17" s="0"/>
+      <c r="OK17" s="0"/>
+      <c r="OL17" s="0"/>
+      <c r="OM17" s="0"/>
+      <c r="ON17" s="0"/>
+      <c r="OO17" s="0"/>
+      <c r="OP17" s="0"/>
+      <c r="OQ17" s="0"/>
+      <c r="OR17" s="0"/>
+      <c r="OS17" s="0"/>
+      <c r="OT17" s="0"/>
+      <c r="OU17" s="0"/>
+      <c r="OV17" s="0"/>
+      <c r="OW17" s="0"/>
+      <c r="OX17" s="0"/>
+      <c r="OY17" s="0"/>
+      <c r="OZ17" s="0"/>
+      <c r="PA17" s="0"/>
+      <c r="PB17" s="0"/>
+      <c r="PC17" s="0"/>
+      <c r="PD17" s="0"/>
+      <c r="PE17" s="0"/>
+      <c r="PF17" s="0"/>
+      <c r="PG17" s="0"/>
+      <c r="PH17" s="0"/>
+      <c r="PI17" s="0"/>
+      <c r="PJ17" s="0"/>
+      <c r="PK17" s="0"/>
+      <c r="PL17" s="0"/>
+      <c r="PM17" s="0"/>
+      <c r="PN17" s="0"/>
+      <c r="PO17" s="0"/>
+      <c r="PP17" s="0"/>
+      <c r="PQ17" s="0"/>
+      <c r="PR17" s="0"/>
+      <c r="PS17" s="0"/>
+      <c r="PT17" s="0"/>
+      <c r="PU17" s="0"/>
+      <c r="PV17" s="0"/>
+      <c r="PW17" s="0"/>
+      <c r="PX17" s="0"/>
+      <c r="PY17" s="0"/>
+      <c r="PZ17" s="0"/>
+      <c r="QA17" s="0"/>
+      <c r="QB17" s="0"/>
+      <c r="QC17" s="0"/>
+      <c r="QD17" s="0"/>
+      <c r="QE17" s="0"/>
+      <c r="QF17" s="0"/>
+      <c r="QG17" s="0"/>
+      <c r="QH17" s="0"/>
+      <c r="QI17" s="0"/>
+      <c r="QJ17" s="0"/>
+      <c r="QK17" s="0"/>
+      <c r="QL17" s="0"/>
+      <c r="QM17" s="0"/>
+      <c r="QN17" s="0"/>
+      <c r="QO17" s="0"/>
+      <c r="QP17" s="0"/>
+      <c r="QQ17" s="0"/>
+      <c r="QR17" s="0"/>
+      <c r="QS17" s="0"/>
+      <c r="QT17" s="0"/>
+      <c r="QU17" s="0"/>
+      <c r="QV17" s="0"/>
+      <c r="QW17" s="0"/>
+      <c r="QX17" s="0"/>
+      <c r="QY17" s="0"/>
+      <c r="QZ17" s="0"/>
+      <c r="RA17" s="0"/>
+      <c r="RB17" s="0"/>
+      <c r="RC17" s="0"/>
+      <c r="RD17" s="0"/>
+      <c r="RE17" s="0"/>
+      <c r="RF17" s="0"/>
+      <c r="RG17" s="0"/>
+      <c r="RH17" s="0"/>
+      <c r="RI17" s="0"/>
+      <c r="RJ17" s="0"/>
+      <c r="RK17" s="0"/>
+      <c r="RL17" s="0"/>
+      <c r="RM17" s="0"/>
+      <c r="RN17" s="0"/>
+      <c r="RO17" s="0"/>
+      <c r="RP17" s="0"/>
+      <c r="RQ17" s="0"/>
+      <c r="RR17" s="0"/>
+      <c r="RS17" s="0"/>
+      <c r="RT17" s="0"/>
+      <c r="RU17" s="0"/>
+      <c r="RV17" s="0"/>
+      <c r="RW17" s="0"/>
+      <c r="RX17" s="0"/>
+      <c r="RY17" s="0"/>
+      <c r="RZ17" s="0"/>
+      <c r="SA17" s="0"/>
+      <c r="SB17" s="0"/>
+      <c r="SC17" s="0"/>
+      <c r="SD17" s="0"/>
+      <c r="SE17" s="0"/>
+      <c r="SF17" s="0"/>
+      <c r="SG17" s="0"/>
+      <c r="SH17" s="0"/>
+      <c r="SI17" s="0"/>
+      <c r="SJ17" s="0"/>
+      <c r="SK17" s="0"/>
+      <c r="SL17" s="0"/>
+      <c r="SM17" s="0"/>
+      <c r="SN17" s="0"/>
+      <c r="SO17" s="0"/>
+      <c r="SP17" s="0"/>
+      <c r="SQ17" s="0"/>
+      <c r="SR17" s="0"/>
+      <c r="SS17" s="0"/>
+      <c r="ST17" s="0"/>
+      <c r="SU17" s="0"/>
+      <c r="SV17" s="0"/>
+      <c r="SW17" s="0"/>
+      <c r="SX17" s="0"/>
+      <c r="SY17" s="0"/>
+      <c r="SZ17" s="0"/>
+      <c r="TA17" s="0"/>
+      <c r="TB17" s="0"/>
+      <c r="TC17" s="0"/>
+      <c r="TD17" s="0"/>
+      <c r="TE17" s="0"/>
+      <c r="TF17" s="0"/>
+      <c r="TG17" s="0"/>
+      <c r="TH17" s="0"/>
+      <c r="TI17" s="0"/>
+      <c r="TJ17" s="0"/>
+      <c r="TK17" s="0"/>
+      <c r="TL17" s="0"/>
+      <c r="TM17" s="0"/>
+      <c r="TN17" s="0"/>
+      <c r="TO17" s="0"/>
+      <c r="TP17" s="0"/>
+      <c r="TQ17" s="0"/>
+      <c r="TR17" s="0"/>
+      <c r="TS17" s="0"/>
+      <c r="TT17" s="0"/>
+      <c r="TU17" s="0"/>
+      <c r="TV17" s="0"/>
+      <c r="TW17" s="0"/>
+      <c r="TX17" s="0"/>
+      <c r="TY17" s="0"/>
+      <c r="TZ17" s="0"/>
+      <c r="UA17" s="0"/>
+      <c r="UB17" s="0"/>
+      <c r="UC17" s="0"/>
+      <c r="UD17" s="0"/>
+      <c r="UE17" s="0"/>
+      <c r="UF17" s="0"/>
+      <c r="UG17" s="0"/>
+      <c r="UH17" s="0"/>
+      <c r="UI17" s="0"/>
+      <c r="UJ17" s="0"/>
+      <c r="UK17" s="0"/>
+      <c r="UL17" s="0"/>
+      <c r="UM17" s="0"/>
+      <c r="UN17" s="0"/>
+      <c r="UO17" s="0"/>
+      <c r="UP17" s="0"/>
+      <c r="UQ17" s="0"/>
+      <c r="UR17" s="0"/>
+      <c r="US17" s="0"/>
+      <c r="UT17" s="0"/>
+      <c r="UU17" s="0"/>
+      <c r="UV17" s="0"/>
+      <c r="UW17" s="0"/>
+      <c r="UX17" s="0"/>
+      <c r="UY17" s="0"/>
+      <c r="UZ17" s="0"/>
+      <c r="VA17" s="0"/>
+      <c r="VB17" s="0"/>
+      <c r="VC17" s="0"/>
+      <c r="VD17" s="0"/>
+      <c r="VE17" s="0"/>
+      <c r="VF17" s="0"/>
+      <c r="VG17" s="0"/>
+      <c r="VH17" s="0"/>
+      <c r="VI17" s="0"/>
+      <c r="VJ17" s="0"/>
+      <c r="VK17" s="0"/>
+      <c r="VL17" s="0"/>
+      <c r="VM17" s="0"/>
+      <c r="VN17" s="0"/>
+      <c r="VO17" s="0"/>
+      <c r="VP17" s="0"/>
+      <c r="VQ17" s="0"/>
+      <c r="VR17" s="0"/>
+      <c r="VS17" s="0"/>
+      <c r="VT17" s="0"/>
+      <c r="VU17" s="0"/>
+      <c r="VV17" s="0"/>
+      <c r="VW17" s="0"/>
+      <c r="VX17" s="0"/>
+      <c r="VY17" s="0"/>
+      <c r="VZ17" s="0"/>
+      <c r="WA17" s="0"/>
+      <c r="WB17" s="0"/>
+      <c r="WC17" s="0"/>
+      <c r="WD17" s="0"/>
+      <c r="WE17" s="0"/>
+      <c r="WF17" s="0"/>
+      <c r="WG17" s="0"/>
+      <c r="WH17" s="0"/>
+      <c r="WI17" s="0"/>
+      <c r="WJ17" s="0"/>
+      <c r="WK17" s="0"/>
+      <c r="WL17" s="0"/>
+      <c r="WM17" s="0"/>
+      <c r="WN17" s="0"/>
+      <c r="WO17" s="0"/>
+      <c r="WP17" s="0"/>
+      <c r="WQ17" s="0"/>
+      <c r="WR17" s="0"/>
+      <c r="WS17" s="0"/>
+      <c r="WT17" s="0"/>
+      <c r="WU17" s="0"/>
+      <c r="WV17" s="0"/>
+      <c r="WW17" s="0"/>
+      <c r="WX17" s="0"/>
+      <c r="WY17" s="0"/>
+      <c r="WZ17" s="0"/>
+      <c r="XA17" s="0"/>
+      <c r="XB17" s="0"/>
+      <c r="XC17" s="0"/>
+      <c r="XD17" s="0"/>
+      <c r="XE17" s="0"/>
+      <c r="XF17" s="0"/>
+      <c r="XG17" s="0"/>
+      <c r="XH17" s="0"/>
+      <c r="XI17" s="0"/>
+      <c r="XJ17" s="0"/>
+      <c r="XK17" s="0"/>
+      <c r="XL17" s="0"/>
+      <c r="XM17" s="0"/>
+      <c r="XN17" s="0"/>
+      <c r="XO17" s="0"/>
+      <c r="XP17" s="0"/>
+      <c r="XQ17" s="0"/>
+      <c r="XR17" s="0"/>
+      <c r="XS17" s="0"/>
+      <c r="XT17" s="0"/>
+      <c r="XU17" s="0"/>
+      <c r="XV17" s="0"/>
+      <c r="XW17" s="0"/>
+      <c r="XX17" s="0"/>
+      <c r="XY17" s="0"/>
+      <c r="XZ17" s="0"/>
+      <c r="YA17" s="0"/>
+      <c r="YB17" s="0"/>
+      <c r="YC17" s="0"/>
+      <c r="YD17" s="0"/>
+      <c r="YE17" s="0"/>
+      <c r="YF17" s="0"/>
+      <c r="YG17" s="0"/>
+      <c r="YH17" s="0"/>
+      <c r="YI17" s="0"/>
+      <c r="YJ17" s="0"/>
+      <c r="YK17" s="0"/>
+      <c r="YL17" s="0"/>
+      <c r="YM17" s="0"/>
+      <c r="YN17" s="0"/>
+      <c r="YO17" s="0"/>
+      <c r="YP17" s="0"/>
+      <c r="YQ17" s="0"/>
+      <c r="YR17" s="0"/>
+      <c r="YS17" s="0"/>
+      <c r="YT17" s="0"/>
+      <c r="YU17" s="0"/>
+      <c r="YV17" s="0"/>
+      <c r="YW17" s="0"/>
+      <c r="YX17" s="0"/>
+      <c r="YY17" s="0"/>
+      <c r="YZ17" s="0"/>
+      <c r="ZA17" s="0"/>
+      <c r="ZB17" s="0"/>
+      <c r="ZC17" s="0"/>
+      <c r="ZD17" s="0"/>
+      <c r="ZE17" s="0"/>
+      <c r="ZF17" s="0"/>
+      <c r="ZG17" s="0"/>
+      <c r="ZH17" s="0"/>
+      <c r="ZI17" s="0"/>
+      <c r="ZJ17" s="0"/>
+      <c r="ZK17" s="0"/>
+      <c r="ZL17" s="0"/>
+      <c r="ZM17" s="0"/>
+      <c r="ZN17" s="0"/>
+      <c r="ZO17" s="0"/>
+      <c r="ZP17" s="0"/>
+      <c r="ZQ17" s="0"/>
+      <c r="ZR17" s="0"/>
+      <c r="ZS17" s="0"/>
+      <c r="ZT17" s="0"/>
+      <c r="ZU17" s="0"/>
+      <c r="ZV17" s="0"/>
+      <c r="ZW17" s="0"/>
+      <c r="ZX17" s="0"/>
+      <c r="ZY17" s="0"/>
+      <c r="ZZ17" s="0"/>
+      <c r="AAA17" s="0"/>
+      <c r="AAB17" s="0"/>
+      <c r="AAC17" s="0"/>
+      <c r="AAD17" s="0"/>
+      <c r="AAE17" s="0"/>
+      <c r="AAF17" s="0"/>
+      <c r="AAG17" s="0"/>
+      <c r="AAH17" s="0"/>
+      <c r="AAI17" s="0"/>
+      <c r="AAJ17" s="0"/>
+      <c r="AAK17" s="0"/>
+      <c r="AAL17" s="0"/>
+      <c r="AAM17" s="0"/>
+      <c r="AAN17" s="0"/>
+      <c r="AAO17" s="0"/>
+      <c r="AAP17" s="0"/>
+      <c r="AAQ17" s="0"/>
+      <c r="AAR17" s="0"/>
+      <c r="AAS17" s="0"/>
+      <c r="AAT17" s="0"/>
+      <c r="AAU17" s="0"/>
+      <c r="AAV17" s="0"/>
+      <c r="AAW17" s="0"/>
+      <c r="AAX17" s="0"/>
+      <c r="AAY17" s="0"/>
+      <c r="AAZ17" s="0"/>
+      <c r="ABA17" s="0"/>
+      <c r="ABB17" s="0"/>
+      <c r="ABC17" s="0"/>
+      <c r="ABD17" s="0"/>
+      <c r="ABE17" s="0"/>
+      <c r="ABF17" s="0"/>
+      <c r="ABG17" s="0"/>
+      <c r="ABH17" s="0"/>
+      <c r="ABI17" s="0"/>
+      <c r="ABJ17" s="0"/>
+      <c r="ABK17" s="0"/>
+      <c r="ABL17" s="0"/>
+      <c r="ABM17" s="0"/>
+      <c r="ABN17" s="0"/>
+      <c r="ABO17" s="0"/>
+      <c r="ABP17" s="0"/>
+      <c r="ABQ17" s="0"/>
+      <c r="ABR17" s="0"/>
+      <c r="ABS17" s="0"/>
+      <c r="ABT17" s="0"/>
+      <c r="ABU17" s="0"/>
+      <c r="ABV17" s="0"/>
+      <c r="ABW17" s="0"/>
+      <c r="ABX17" s="0"/>
+      <c r="ABY17" s="0"/>
+      <c r="ABZ17" s="0"/>
+      <c r="ACA17" s="0"/>
+      <c r="ACB17" s="0"/>
+      <c r="ACC17" s="0"/>
+      <c r="ACD17" s="0"/>
+      <c r="ACE17" s="0"/>
+      <c r="ACF17" s="0"/>
+      <c r="ACG17" s="0"/>
+      <c r="ACH17" s="0"/>
+      <c r="ACI17" s="0"/>
+      <c r="ACJ17" s="0"/>
+      <c r="ACK17" s="0"/>
+      <c r="ACL17" s="0"/>
+      <c r="ACM17" s="0"/>
+      <c r="ACN17" s="0"/>
+      <c r="ACO17" s="0"/>
+      <c r="ACP17" s="0"/>
+      <c r="ACQ17" s="0"/>
+      <c r="ACR17" s="0"/>
+      <c r="ACS17" s="0"/>
+      <c r="ACT17" s="0"/>
+      <c r="ACU17" s="0"/>
+      <c r="ACV17" s="0"/>
+      <c r="ACW17" s="0"/>
+      <c r="ACX17" s="0"/>
+      <c r="ACY17" s="0"/>
+      <c r="ACZ17" s="0"/>
+      <c r="ADA17" s="0"/>
+      <c r="ADB17" s="0"/>
+      <c r="ADC17" s="0"/>
+      <c r="ADD17" s="0"/>
+      <c r="ADE17" s="0"/>
+      <c r="ADF17" s="0"/>
+      <c r="ADG17" s="0"/>
+      <c r="ADH17" s="0"/>
+      <c r="ADI17" s="0"/>
+      <c r="ADJ17" s="0"/>
+      <c r="ADK17" s="0"/>
+      <c r="ADL17" s="0"/>
+      <c r="ADM17" s="0"/>
+      <c r="ADN17" s="0"/>
+      <c r="ADO17" s="0"/>
+      <c r="ADP17" s="0"/>
+      <c r="ADQ17" s="0"/>
+      <c r="ADR17" s="0"/>
+      <c r="ADS17" s="0"/>
+      <c r="ADT17" s="0"/>
+      <c r="ADU17" s="0"/>
+      <c r="ADV17" s="0"/>
+      <c r="ADW17" s="0"/>
+      <c r="ADX17" s="0"/>
+      <c r="ADY17" s="0"/>
+      <c r="ADZ17" s="0"/>
+      <c r="AEA17" s="0"/>
+      <c r="AEB17" s="0"/>
+      <c r="AEC17" s="0"/>
+      <c r="AED17" s="0"/>
+      <c r="AEE17" s="0"/>
+      <c r="AEF17" s="0"/>
+      <c r="AEG17" s="0"/>
+      <c r="AEH17" s="0"/>
+      <c r="AEI17" s="0"/>
+      <c r="AEJ17" s="0"/>
+      <c r="AEK17" s="0"/>
+      <c r="AEL17" s="0"/>
+      <c r="AEM17" s="0"/>
+      <c r="AEN17" s="0"/>
+      <c r="AEO17" s="0"/>
+      <c r="AEP17" s="0"/>
+      <c r="AEQ17" s="0"/>
+      <c r="AER17" s="0"/>
+      <c r="AES17" s="0"/>
+      <c r="AET17" s="0"/>
+      <c r="AEU17" s="0"/>
+      <c r="AEV17" s="0"/>
+      <c r="AEW17" s="0"/>
+      <c r="AEX17" s="0"/>
+      <c r="AEY17" s="0"/>
+      <c r="AEZ17" s="0"/>
+      <c r="AFA17" s="0"/>
+      <c r="AFB17" s="0"/>
+      <c r="AFC17" s="0"/>
+      <c r="AFD17" s="0"/>
+      <c r="AFE17" s="0"/>
+      <c r="AFF17" s="0"/>
+      <c r="AFG17" s="0"/>
+      <c r="AFH17" s="0"/>
+      <c r="AFI17" s="0"/>
+      <c r="AFJ17" s="0"/>
+      <c r="AFK17" s="0"/>
+      <c r="AFL17" s="0"/>
+      <c r="AFM17" s="0"/>
+      <c r="AFN17" s="0"/>
+      <c r="AFO17" s="0"/>
+      <c r="AFP17" s="0"/>
+      <c r="AFQ17" s="0"/>
+      <c r="AFR17" s="0"/>
+      <c r="AFS17" s="0"/>
+      <c r="AFT17" s="0"/>
+      <c r="AFU17" s="0"/>
+      <c r="AFV17" s="0"/>
+      <c r="AFW17" s="0"/>
+      <c r="AFX17" s="0"/>
+      <c r="AFY17" s="0"/>
+      <c r="AFZ17" s="0"/>
+      <c r="AGA17" s="0"/>
+      <c r="AGB17" s="0"/>
+      <c r="AGC17" s="0"/>
+      <c r="AGD17" s="0"/>
+      <c r="AGE17" s="0"/>
+      <c r="AGF17" s="0"/>
+      <c r="AGG17" s="0"/>
+      <c r="AGH17" s="0"/>
+      <c r="AGI17" s="0"/>
+      <c r="AGJ17" s="0"/>
+      <c r="AGK17" s="0"/>
+      <c r="AGL17" s="0"/>
+      <c r="AGM17" s="0"/>
+      <c r="AGN17" s="0"/>
+      <c r="AGO17" s="0"/>
+      <c r="AGP17" s="0"/>
+      <c r="AGQ17" s="0"/>
+      <c r="AGR17" s="0"/>
+      <c r="AGS17" s="0"/>
+      <c r="AGT17" s="0"/>
+      <c r="AGU17" s="0"/>
+      <c r="AGV17" s="0"/>
+      <c r="AGW17" s="0"/>
+      <c r="AGX17" s="0"/>
+      <c r="AGY17" s="0"/>
+      <c r="AGZ17" s="0"/>
+      <c r="AHA17" s="0"/>
+      <c r="AHB17" s="0"/>
+      <c r="AHC17" s="0"/>
+      <c r="AHD17" s="0"/>
+      <c r="AHE17" s="0"/>
+      <c r="AHF17" s="0"/>
+      <c r="AHG17" s="0"/>
+      <c r="AHH17" s="0"/>
+      <c r="AHI17" s="0"/>
+      <c r="AHJ17" s="0"/>
+      <c r="AHK17" s="0"/>
+      <c r="AHL17" s="0"/>
+      <c r="AHM17" s="0"/>
+      <c r="AHN17" s="0"/>
+      <c r="AHO17" s="0"/>
+      <c r="AHP17" s="0"/>
+      <c r="AHQ17" s="0"/>
+      <c r="AHR17" s="0"/>
+      <c r="AHS17" s="0"/>
+      <c r="AHT17" s="0"/>
+      <c r="AHU17" s="0"/>
+      <c r="AHV17" s="0"/>
+      <c r="AHW17" s="0"/>
+      <c r="AHX17" s="0"/>
+      <c r="AHY17" s="0"/>
+      <c r="AHZ17" s="0"/>
+      <c r="AIA17" s="0"/>
+      <c r="AIB17" s="0"/>
+      <c r="AIC17" s="0"/>
+      <c r="AID17" s="0"/>
+      <c r="AIE17" s="0"/>
+      <c r="AIF17" s="0"/>
+      <c r="AIG17" s="0"/>
+      <c r="AIH17" s="0"/>
+      <c r="AII17" s="0"/>
+      <c r="AIJ17" s="0"/>
+      <c r="AIK17" s="0"/>
+      <c r="AIL17" s="0"/>
+      <c r="AIM17" s="0"/>
+      <c r="AIN17" s="0"/>
+      <c r="AIO17" s="0"/>
+      <c r="AIP17" s="0"/>
+      <c r="AIQ17" s="0"/>
+      <c r="AIR17" s="0"/>
+      <c r="AIS17" s="0"/>
+      <c r="AIT17" s="0"/>
+      <c r="AIU17" s="0"/>
+      <c r="AIV17" s="0"/>
+      <c r="AIW17" s="0"/>
+      <c r="AIX17" s="0"/>
+      <c r="AIY17" s="0"/>
+      <c r="AIZ17" s="0"/>
+      <c r="AJA17" s="0"/>
+      <c r="AJB17" s="0"/>
+      <c r="AJC17" s="0"/>
+      <c r="AJD17" s="0"/>
+      <c r="AJE17" s="0"/>
+      <c r="AJF17" s="0"/>
+      <c r="AJG17" s="0"/>
+      <c r="AJH17" s="0"/>
+      <c r="AJI17" s="0"/>
+      <c r="AJJ17" s="0"/>
+      <c r="AJK17" s="0"/>
+      <c r="AJL17" s="0"/>
+      <c r="AJM17" s="0"/>
+      <c r="AJN17" s="0"/>
+      <c r="AJO17" s="0"/>
+      <c r="AJP17" s="0"/>
+      <c r="AJQ17" s="0"/>
+      <c r="AJR17" s="0"/>
+      <c r="AJS17" s="0"/>
+      <c r="AJT17" s="0"/>
+      <c r="AJU17" s="0"/>
+      <c r="AJV17" s="0"/>
+      <c r="AJW17" s="0"/>
+      <c r="AJX17" s="0"/>
+      <c r="AJY17" s="0"/>
+      <c r="AJZ17" s="0"/>
+      <c r="AKA17" s="0"/>
+      <c r="AKB17" s="0"/>
+      <c r="AKC17" s="0"/>
+      <c r="AKD17" s="0"/>
+      <c r="AKE17" s="0"/>
+      <c r="AKF17" s="0"/>
+      <c r="AKG17" s="0"/>
+      <c r="AKH17" s="0"/>
+      <c r="AKI17" s="0"/>
+      <c r="AKJ17" s="0"/>
+      <c r="AKK17" s="0"/>
+      <c r="AKL17" s="0"/>
+      <c r="AKM17" s="0"/>
+      <c r="AKN17" s="0"/>
+      <c r="AKO17" s="0"/>
+      <c r="AKP17" s="0"/>
+      <c r="AKQ17" s="0"/>
+      <c r="AKR17" s="0"/>
+      <c r="AKS17" s="0"/>
+      <c r="AKT17" s="0"/>
+      <c r="AKU17" s="0"/>
+      <c r="AKV17" s="0"/>
+      <c r="AKW17" s="0"/>
+      <c r="AKX17" s="0"/>
+      <c r="AKY17" s="0"/>
+      <c r="AKZ17" s="0"/>
+      <c r="ALA17" s="0"/>
+      <c r="ALB17" s="0"/>
+      <c r="ALC17" s="0"/>
+      <c r="ALD17" s="0"/>
+      <c r="ALE17" s="0"/>
+      <c r="ALF17" s="0"/>
+      <c r="ALG17" s="0"/>
+      <c r="ALH17" s="0"/>
+      <c r="ALI17" s="0"/>
+      <c r="ALJ17" s="0"/>
+      <c r="ALK17" s="0"/>
+      <c r="ALL17" s="0"/>
+      <c r="ALM17" s="0"/>
+      <c r="ALN17" s="0"/>
+      <c r="ALO17" s="0"/>
+      <c r="ALP17" s="0"/>
+      <c r="ALQ17" s="0"/>
+      <c r="ALR17" s="0"/>
+      <c r="ALS17" s="0"/>
+      <c r="ALT17" s="0"/>
+      <c r="ALU17" s="0"/>
+      <c r="ALV17" s="0"/>
+      <c r="ALW17" s="0"/>
+      <c r="ALX17" s="0"/>
+      <c r="ALY17" s="0"/>
+      <c r="ALZ17" s="0"/>
+      <c r="AMA17" s="0"/>
+      <c r="AMB17" s="0"/>
+      <c r="AMC17" s="0"/>
+      <c r="AMD17" s="0"/>
+      <c r="AME17" s="0"/>
+      <c r="AMF17" s="0"/>
+      <c r="AMG17" s="0"/>
+      <c r="AMH17" s="0"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" display="http://localhost:8000"/>
+    <hyperlink ref="D13" r:id="rId1" display="Feature Request: Base URL (http://localhost:8000) shoud not return 404 error&#10;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -735,4 +2397,920 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="41.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="36.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="34.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="30.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="4" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" s="10" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="127.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="199.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" s="10" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="73.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="0"/>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="0"/>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="0"/>
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" s="10" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" s="10" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="Verify basic functionality – http://localhost:8000/players?page=1  with valid credentials – admin/admin"/>
+    <hyperlink ref="E3" r:id="rId2" display="http://localhost:8000/players?page=1"/>
+    <hyperlink ref="E12" r:id="rId3" display="Enter URL: http://localhost:8000/players/22"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/PlayersApi_RegressionTestsReport.xlsx
+++ b/PlayersApi_RegressionTestsReport.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="137">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -507,28 +507,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">not found response </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">consistency</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> for the spesific element. 
+      <t xml:space="preserve">not found response consistency for the spesific element. 
 Tested separately by Python scripts</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 5</t>
   </si>
   <si>
     <t xml:space="preserve">3.1. Uncosistence  response data: sometimes "Name" field is empty.</t>
@@ -719,7 +703,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -779,12 +763,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -853,7 +831,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -907,18 +885,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2407,9 +2377,9 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2707,10 +2677,10 @@
       <c r="E10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H10" s="1"/>
@@ -2741,7 +2711,7 @@
       <c r="E11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -2762,7 +2732,7 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2795,7 +2765,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="199.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="198.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2814,9 +2784,11 @@
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="H13" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2830,17 +2802,17 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>106</v>
+      <c r="D14" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -2864,13 +2836,13 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -2896,13 +2868,13 @@
         <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
@@ -2925,16 +2897,16 @@
     </row>
     <row r="17" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -2957,7 +2929,7 @@
     </row>
     <row r="18" s="10" customFormat="true" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -2979,7 +2951,7 @@
     </row>
     <row r="19" customFormat="false" ht="271.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>72</v>
@@ -2988,16 +2960,16 @@
         <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
@@ -3024,10 +2996,10 @@
         <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
@@ -3052,13 +3024,13 @@
         <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" s="0"/>
       <c r="F21" s="1" t="s">
@@ -3081,7 +3053,7 @@
     </row>
     <row r="22" s="10" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
@@ -3103,10 +3075,10 @@
     </row>
     <row r="23" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>66</v>
@@ -3117,7 +3089,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3133,25 +3105,25 @@
     </row>
     <row r="24" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3189,16 +3161,16 @@
     </row>
     <row r="26" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="1" t="s">
@@ -3219,16 +3191,16 @@
     </row>
     <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
@@ -3249,19 +3221,19 @@
     </row>
     <row r="28" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>79</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="17" t="s">
         <v>135</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>22</v>
